--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3532899.870626024</v>
+        <v>3530564.759424043</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7839760.514778416</v>
+        <v>7839760.514778415</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>398.9136525226371</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>39.45655134471478</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>113.792296427891</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>15.88548576453945</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>331.0052706490462</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247047</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>15.6979793877888</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>23.73664243899209</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -1117,7 +1117,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>172.269214259112</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>180.7169940972981</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>55.17585209939448</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>15.42290135054921</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>141.6930519056953</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,13 +1585,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>209.8270610998449</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>42.54416032354752</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>100.2207207382361</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>18.70843787977355</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,13 +2245,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>132.6315337216687</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>178.2642147042095</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>108.2950343703276</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187888</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>117.4765410832886</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>41.02686156550217</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710093</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2801,10 +2801,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,10 +2950,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>60.78102717027967</v>
       </c>
       <c r="D31" t="n">
-        <v>100.2207207382361</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3196,13 +3196,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>107.4021082756238</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>240.0633098883607</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187854</v>
+        <v>409.8033385187882</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>25.52471385612599</v>
+        <v>130.1208074460241</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>126.926382450743</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,13 +3910,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>125.2851635392055</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3943,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>127.6065435523137</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,22 +4132,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>134.3852063573451</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>74.99129529219145</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>918.0161179218651</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>918.0161179218651</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>918.0161179218651</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>532.2278653236208</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674218</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345445</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4349,16 +4349,16 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
         <v>1975.31341879663</v>
@@ -4367,13 +4367,13 @@
         <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1604.395429084661</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218651</v>
+        <v>1230.929670823581</v>
       </c>
       <c r="Y2" t="n">
-        <v>918.0161179218651</v>
+        <v>1230.929670823581</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
@@ -4413,25 +4413,25 @@
         <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495377</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M3" t="n">
-        <v>1233.591260505112</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4446,10 +4446,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>918.7469765594642</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.23396574994</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1321.188020533234</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>1321.188020533234</v>
+        <v>825.137147448514</v>
       </c>
       <c r="W4" t="n">
-        <v>1321.188020533234</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="X4" t="n">
-        <v>1321.188020533234</v>
+        <v>535.7199774115534</v>
       </c>
       <c r="Y4" t="n">
-        <v>1100.395441389704</v>
+        <v>314.9273982680232</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1267.498902304191</v>
+        <v>809.2519436594666</v>
       </c>
       <c r="C5" t="n">
-        <v>898.5363853637798</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="D5" t="n">
-        <v>540.2706867570294</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="E5" t="n">
-        <v>540.2706867570294</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816077</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
         <v>795.755353087291</v>
@@ -4583,34 +4583,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
         <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.313418796631</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V5" t="n">
-        <v>1975.313418796631</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W5" t="n">
-        <v>1975.313418796631</v>
+        <v>1959.45687396048</v>
       </c>
       <c r="X5" t="n">
-        <v>1601.847660535551</v>
+        <v>1585.9911156994</v>
       </c>
       <c r="Y5" t="n">
-        <v>1601.847660535551</v>
+        <v>1195.851783723588</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
@@ -4641,28 +4641,28 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L6" t="n">
-        <v>932.4978103101001</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M6" t="n">
-        <v>1295.75982926932</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1683.044957866266</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>2015.115393042428</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312202</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4750,25 +4750,25 @@
         <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.86271359008</v>
+        <v>1509.886307086047</v>
       </c>
       <c r="T7" t="n">
-        <v>1533.86271359008</v>
+        <v>1286.907826280783</v>
       </c>
       <c r="U7" t="n">
-        <v>1244.744376093917</v>
+        <v>997.7894887846204</v>
       </c>
       <c r="V7" t="n">
-        <v>990.0598878880306</v>
+        <v>743.1050005787336</v>
       </c>
       <c r="W7" t="n">
-        <v>700.6427178510701</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="X7" t="n">
-        <v>526.6334105186337</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y7" t="n">
-        <v>305.8408313751036</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1844.338003964587</v>
+        <v>1239.503030201924</v>
       </c>
       <c r="C8" t="n">
-        <v>1475.375487024175</v>
+        <v>870.5405132615124</v>
       </c>
       <c r="D8" t="n">
-        <v>1117.109788417425</v>
+        <v>512.2748146547618</v>
       </c>
       <c r="E8" t="n">
-        <v>1117.109788417425</v>
+        <v>126.4865620565176</v>
       </c>
       <c r="F8" t="n">
-        <v>706.1238836278173</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
-        <v>291.0514334728138</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2994.5429342656</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2621.07717600452</v>
+        <v>2016.242202241858</v>
       </c>
       <c r="Y8" t="n">
-        <v>2230.937844028709</v>
+        <v>1626.102870266046</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
         <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>864.6455479292516</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5030,28 +5030,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>784.5811134804959</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C13" t="n">
-        <v>615.644930552589</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D13" t="n">
-        <v>465.5282911402533</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1187.022157454266</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>966.2295783107356</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,52 +5264,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,22 +5349,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
         <v>1307.627092998424</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>719.5738700011939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>550.637687073287</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,10 +5510,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5522,40 +5522,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="K18" t="n">
-        <v>244.2098454714574</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L18" t="n">
-        <v>739.5354516872161</v>
+        <v>924.8344286397187</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.913939313768</v>
+        <v>1103.652278938885</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>631.5645865368208</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438498</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,61 +5738,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.079034721979</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>983.3556038098237</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C22" t="n">
-        <v>814.4194208819168</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D22" t="n">
-        <v>664.3027814695811</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>516.389687887188</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>369.4997403892776</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1165.004068640063</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="23">
@@ -5969,7 +5969,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5981,28 +5981,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516142</v>
+        <v>738.7889117913855</v>
       </c>
       <c r="M24" t="n">
-        <v>1176.533952578166</v>
+        <v>1336.167399417938</v>
       </c>
       <c r="N24" t="n">
-        <v>1804.131916132773</v>
+        <v>1963.765362972545</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>1963.765362972545</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2387.388512467613</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.3099000622261</v>
+        <v>695.5020655703119</v>
       </c>
       <c r="C28" t="n">
-        <v>747.3737171343192</v>
+        <v>526.565882642405</v>
       </c>
       <c r="D28" t="n">
-        <v>597.2570777219835</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>449.3439841395904</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>302.45403664168</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>135.2579373565599</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1318.750944035996</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y28" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>800.5007694647277</v>
+        <v>741.8431516380895</v>
       </c>
       <c r="C31" t="n">
-        <v>631.5645865368208</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D31" t="n">
         <v>530.3315352860773</v>
@@ -6613,58 +6613,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1202.941813438498</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1492342949674</v>
+        <v>923.4916164683292</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898187001</v>
+        <v>1176.533952578167</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>983.3556038098237</v>
+        <v>560.7825789706077</v>
       </c>
       <c r="C34" t="n">
-        <v>814.4194208819168</v>
+        <v>391.8463960427008</v>
       </c>
       <c r="D34" t="n">
-        <v>664.3027814695811</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>516.389687887188</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="F34" t="n">
-        <v>369.4997403892776</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G34" t="n">
-        <v>202.3036411041575</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1613.786198681611</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>1385.796647783593</v>
+        <v>963.2236229443776</v>
       </c>
       <c r="Y34" t="n">
-        <v>1165.004068640063</v>
+        <v>742.4310438008474</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168622</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>590.909656468498</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.533952578166</v>
+        <v>716.6687843969299</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C37" t="n">
-        <v>564.5188827892232</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D37" t="n">
-        <v>414.4022433768874</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="E37" t="n">
-        <v>266.4891497944943</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="F37" t="n">
-        <v>119.599202296584</v>
+        <v>366.9636532421617</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1135.8961096909</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y37" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="38">
@@ -7154,37 +7154,37 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7199,10 +7199,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466572</v>
@@ -7245,22 +7245,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>738.7889117913855</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>738.7889117913855</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7400,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2598873597757</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>448.1846595309963</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L42" t="n">
-        <v>943.510265746755</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1540.888753373307</v>
+        <v>1103.652278938885</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.3099000622261</v>
+        <v>639.6425904082686</v>
       </c>
       <c r="C43" t="n">
-        <v>747.3737171343192</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D43" t="n">
-        <v>597.2570777219835</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>449.3439841395904</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>302.45403664168</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G43" t="n">
         <v>175.9033664000582</v>
@@ -7564,55 +7564,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970974</v>
+        <v>1559.490355317016</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934013</v>
+        <v>1270.073185280056</v>
       </c>
       <c r="X43" t="n">
-        <v>1318.750944035996</v>
+        <v>1042.083634382038</v>
       </c>
       <c r="Y43" t="n">
-        <v>1097.958364892466</v>
+        <v>821.2910552385083</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192383</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111695</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>184.7035232280578</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>724.7519863413023</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C46" t="n">
-        <v>555.8158034133954</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2188.359466111739</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1899.284239455937</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1644.59975125005</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1355.182581213089</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1127.193030315072</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y46" t="n">
-        <v>906.400451171542</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
   </sheetData>
@@ -8064,22 +8064,22 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>154.0169020165196</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>193.3273467878359</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621888</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>54.95314511566511</v>
       </c>
       <c r="P6" t="n">
-        <v>186.5911984019034</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154988</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-1.846391241962518e-12</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>38.13892827624204</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>15.88259428919224</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>137.2878198583898</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>36.41624546988311</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>48.39475227997627</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>126.7126101431577</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>32.8926045706001</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>40.32043864788525</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>38.13892827624161</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>31.13893193492373</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>99.26785128072171</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>106.4657939283482</v>
       </c>
       <c r="D31" t="n">
-        <v>48.39475227997627</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>32.8926045706001</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>46.45968844823028</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>139.9994244361428</v>
+        <v>35.40333084624476</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>19.50758019582621</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,7 +25798,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>40.23897475306335</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25834,16 +25834,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>124.5310997715143</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>45.44677382459216</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>142.4141550350968</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>673825.2162894153</v>
+        <v>673825.2162894151</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>673825.2162894153</v>
+        <v>673825.2162894151</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>673825.2162894154</v>
+        <v>673825.2162894153</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>673825.2162894153</v>
+        <v>673825.2162894151</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>673825.2162894154</v>
+        <v>673825.2162894153</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>673825.2162894153</v>
+        <v>673825.2162894151</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>673825.2162894154</v>
+        <v>673825.2162894151</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>673825.2162894153</v>
+        <v>673825.2162894151</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>759463.6371244626</v>
+      </c>
+      <c r="C2" t="n">
         <v>759463.6371244624</v>
       </c>
-      <c r="C2" t="n">
-        <v>759463.6371244625</v>
-      </c>
       <c r="D2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="F2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="G2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="F2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="G2" t="n">
-        <v>746610.6047132555</v>
       </c>
       <c r="H2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="I2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132557</v>
       </c>
       <c r="J2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="K2" t="n">
+        <v>746610.6047132557</v>
+      </c>
+      <c r="L2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="L2" t="n">
-        <v>746610.6047132552</v>
-      </c>
       <c r="M2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132557</v>
       </c>
       <c r="O2" t="n">
+        <v>746610.6047132558</v>
+      </c>
+      <c r="P2" t="n">
         <v>746610.6047132557</v>
-      </c>
-      <c r="P2" t="n">
-        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26363,28 +26363,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403377</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099825</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.97000819077</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,40 +26418,40 @@
         <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.136976983</v>
+        <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309556</v>
+        <v>87914.29116309555</v>
       </c>
       <c r="E4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8727.256391744266</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8727.256391744266</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8727.256391744266</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8727.256391744228</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8727.256391744209</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8727.256391744202</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8727.256391744228</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8727.256391744209</v>
+      </c>
+      <c r="N4" t="n">
         <v>8727.256391744282</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8727.256391744295</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8727.256391744295</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8727.256391744302</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8727.256391744346</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8727.256391744282</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8727.256391744339</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8727.256391744324</v>
       </c>
       <c r="O4" t="n">
         <v>8727.256391744284</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26494,10 +26494,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="M5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-583748.0558682849</v>
       </c>
       <c r="C6" t="n">
-        <v>531003.7277076344</v>
+        <v>531003.7277076347</v>
       </c>
       <c r="D6" t="n">
-        <v>370988.2649596359</v>
+        <v>370988.2649596357</v>
       </c>
       <c r="E6" t="n">
-        <v>311348.3566902487</v>
+        <v>311313.6187648127</v>
       </c>
       <c r="F6" t="n">
-        <v>636760.818497604</v>
+        <v>636726.0805721683</v>
       </c>
       <c r="G6" t="n">
-        <v>636760.8184976042</v>
+        <v>636726.080572168</v>
       </c>
       <c r="H6" t="n">
-        <v>636760.8184976039</v>
+        <v>636726.0805721683</v>
       </c>
       <c r="I6" t="n">
-        <v>636760.818497604</v>
+        <v>636726.0805721685</v>
       </c>
       <c r="J6" t="n">
-        <v>469155.6406876214</v>
+        <v>469120.9027621858</v>
       </c>
       <c r="K6" t="n">
-        <v>636760.818497604</v>
+        <v>636726.0805721686</v>
       </c>
       <c r="L6" t="n">
-        <v>588466.8484894132</v>
+        <v>588432.1105639776</v>
       </c>
       <c r="M6" t="n">
-        <v>551705.7905620921</v>
+        <v>551671.0526366569</v>
       </c>
       <c r="N6" t="n">
-        <v>636760.8184976039</v>
+        <v>636726.0805721686</v>
       </c>
       <c r="O6" t="n">
-        <v>636760.8184976043</v>
+        <v>636726.0805721688</v>
       </c>
       <c r="P6" t="n">
-        <v>636760.8184976039</v>
+        <v>636726.0805721686</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175393</v>
@@ -26787,40 +26787,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.584832100039</v>
+      </c>
+      <c r="C4" t="n">
         <v>640.5848321000389</v>
       </c>
-      <c r="C4" t="n">
-        <v>640.5848321000391</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,16 +27385,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>7.962393219074386</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>309.7844173726982</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>66.03968375404625</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,16 +27588,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>270.3416683566612</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51.72857101443435</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>333.5429893296242</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27789,10 +27789,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>170.9258179227454</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>53.44044112992515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>113.8907702900223</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>314.5552485790745</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>271.1000969860418</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-8.424525727746915e-14</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.608491118076927e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-1.422780363786534e-12</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29521,10 +29521,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-6.436047097567689e-14</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>-1.608491118076927e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>483.3274636075158</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>258.3858318060501</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>396.970088694367</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>289.7537444526272</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>322.7581251332975</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>173.3851399586643</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>301.6445156724565</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O24" t="n">
-        <v>434.178635838203</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>307.3280120589124</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>479.6444630806909</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321067</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M30" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>360.9226811202607</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>469.5567819573411</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>691.6611968462882</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162553</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>269.1634560719496</v>
       </c>
       <c r="N36" t="n">
-        <v>499.3768644016574</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663262</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>263.7590256391499</v>
+        <v>705.9257335045839</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162543</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>145.7021085929664</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>173.3851399586636</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.015579806721</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>227.8611086463981</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>357.9244589488886</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>520.94823429856</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>443.0068759113682</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>640.5848321000391</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820406</v>
@@ -35027,13 +35027,13 @@
         <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>390.3778271117882</v>
       </c>
       <c r="P6" t="n">
-        <v>436.2707275254357</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>340.7312191630714</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>120.5443928316911</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>254.8360547723487</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>151.9123054782682</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>180.6240912112792</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>31.25110603664601</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>159.048271228012</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902929</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O24" t="n">
-        <v>291.5823913937585</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>167.3462379728909</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>337.5104291586726</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876622</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M30" t="n">
-        <v>101.892590396165</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>220.9409070342392</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>327.4227480353227</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>560.319484762955</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146268</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>127.0294221499312</v>
       </c>
       <c r="N36" t="n">
-        <v>368.035152318324</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396399</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>132.4173135558165</v>
+        <v>574.5840214212507</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317824</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146267</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>18.86448192629967</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>31.25110603664532</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236315111</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>90.01966967203913</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>226.5827468655553</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
